--- a/dataanalysis/data/predictions/1200/09171143_1145.xlsx
+++ b/dataanalysis/data/predictions/1200/09171143_1145.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="229">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-17</t>
   </si>
   <si>
@@ -698,12 +701,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -1061,13 +1058,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH82"/>
+  <dimension ref="A1:AI82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1170,19 +1167,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300004</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-3.09</v>
@@ -1200,7 +1200,7 @@
         <v>61524.23</v>
       </c>
       <c r="J2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -1242,10 +1242,25 @@
         <v>-0.77</v>
       </c>
       <c r="X2" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="Y2">
+        <v>-6.06</v>
+      </c>
+      <c r="Z2">
+        <v>15.5</v>
+      </c>
+      <c r="AA2">
+        <v>5.23</v>
       </c>
       <c r="AC2" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1253,22 +1268,25 @@
       <c r="AG2">
         <v>0.8073266744613647</v>
       </c>
-      <c r="AH2" t="s">
-        <v>228</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300007</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>5.67</v>
@@ -1286,7 +1304,7 @@
         <v>473157.94</v>
       </c>
       <c r="J3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K3">
         <v>7</v>
@@ -1328,10 +1346,25 @@
         <v>-1.94</v>
       </c>
       <c r="X3" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="Y3">
+        <v>1.51</v>
+      </c>
+      <c r="Z3">
+        <v>72.86</v>
+      </c>
+      <c r="AA3">
+        <v>6.21</v>
       </c>
       <c r="AC3" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1339,22 +1372,25 @@
       <c r="AG3">
         <v>25.63589859008789</v>
       </c>
-      <c r="AH3" t="s">
-        <v>228</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300014</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0.67</v>
@@ -1372,7 +1408,7 @@
         <v>491904.77</v>
       </c>
       <c r="J4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K4">
         <v>9</v>
@@ -1414,10 +1450,25 @@
         <v>-0.03</v>
       </c>
       <c r="X4" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="Y4">
+        <v>-4.71</v>
+      </c>
+      <c r="Z4">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="AA4">
+        <v>-0.58</v>
       </c>
       <c r="AC4" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>1</v>
@@ -1425,22 +1476,25 @@
       <c r="AG4">
         <v>11.95679759979248</v>
       </c>
-      <c r="AH4" t="s">
-        <v>228</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300033</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>4.91</v>
@@ -1458,7 +1512,7 @@
         <v>487922.28</v>
       </c>
       <c r="J5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1500,10 +1554,25 @@
         <v>0.41</v>
       </c>
       <c r="X5" t="s">
-        <v>168</v>
+        <v>169</v>
+      </c>
+      <c r="Y5">
+        <v>-6.02</v>
+      </c>
+      <c r="Z5">
+        <v>383.19</v>
+      </c>
+      <c r="AA5">
+        <v>-2.87</v>
       </c>
       <c r="AC5" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1511,22 +1580,25 @@
       <c r="AG5">
         <v>-28.55218124389648</v>
       </c>
-      <c r="AH5" t="s">
-        <v>228</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300043</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>0.26</v>
@@ -1544,7 +1616,7 @@
         <v>144888.52</v>
       </c>
       <c r="J6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K6">
         <v>6</v>
@@ -1586,10 +1658,25 @@
         <v>-0.84</v>
       </c>
       <c r="X6" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="Y6">
+        <v>-6.88</v>
+      </c>
+      <c r="Z6">
+        <v>7.59</v>
+      </c>
+      <c r="AA6">
+        <v>-1.94</v>
       </c>
       <c r="AC6" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1597,22 +1684,25 @@
       <c r="AG6">
         <v>-1.876205801963806</v>
       </c>
-      <c r="AH6" t="s">
-        <v>228</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300049</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>2.03</v>
@@ -1630,7 +1720,7 @@
         <v>87689.73</v>
       </c>
       <c r="J7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K7">
         <v>15</v>
@@ -1672,10 +1762,25 @@
         <v>-0.2</v>
       </c>
       <c r="X7" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="Y7">
+        <v>-2.36</v>
+      </c>
+      <c r="Z7">
+        <v>90.68000000000001</v>
+      </c>
+      <c r="AA7">
+        <v>3.54</v>
       </c>
       <c r="AC7" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1683,22 +1788,25 @@
       <c r="AG7">
         <v>2.137804746627808</v>
       </c>
-      <c r="AH7" t="s">
-        <v>228</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300083</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>2.96</v>
@@ -1716,7 +1824,7 @@
         <v>121899.8</v>
       </c>
       <c r="J8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1757,8 +1865,23 @@
       <c r="W8">
         <v>0.05</v>
       </c>
+      <c r="Y8">
+        <v>-3.49</v>
+      </c>
+      <c r="Z8">
+        <v>11.22</v>
+      </c>
+      <c r="AA8">
+        <v>0.72</v>
+      </c>
       <c r="AC8" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1766,22 +1889,25 @@
       <c r="AG8">
         <v>2.32549786567688</v>
       </c>
-      <c r="AH8" t="s">
-        <v>228</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300085</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>4.76</v>
@@ -1799,7 +1925,7 @@
         <v>437602.36</v>
       </c>
       <c r="J9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1841,10 +1967,25 @@
         <v>0.06</v>
       </c>
       <c r="X9" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="Y9">
+        <v>-8.75</v>
+      </c>
+      <c r="Z9">
+        <v>58.26</v>
+      </c>
+      <c r="AA9">
+        <v>-4.38</v>
       </c>
       <c r="AC9" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1852,22 +1993,25 @@
       <c r="AG9">
         <v>7.918560981750488</v>
       </c>
-      <c r="AH9" t="s">
-        <v>228</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300115</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>12.9</v>
@@ -1885,7 +2029,7 @@
         <v>629678.6899999999</v>
       </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1927,10 +2071,25 @@
         <v>0.24</v>
       </c>
       <c r="X10" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="Y10">
+        <v>9.039999999999999</v>
+      </c>
+      <c r="Z10">
+        <v>35.39</v>
+      </c>
+      <c r="AA10">
+        <v>11.39</v>
       </c>
       <c r="AC10" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1938,22 +2097,25 @@
       <c r="AG10">
         <v>2.495813846588135</v>
       </c>
-      <c r="AH10" t="s">
-        <v>228</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300139</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-2.91</v>
@@ -1971,7 +2133,7 @@
         <v>104729.36</v>
       </c>
       <c r="J11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K11">
         <v>7</v>
@@ -2013,10 +2175,25 @@
         <v>-1.21</v>
       </c>
       <c r="X11" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="Y11">
+        <v>-8.76</v>
+      </c>
+      <c r="Z11">
+        <v>25.61</v>
+      </c>
+      <c r="AA11">
+        <v>-5.25</v>
       </c>
       <c r="AC11" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -2024,22 +2201,25 @@
       <c r="AG11">
         <v>0.9280582666397095</v>
       </c>
-      <c r="AH11" t="s">
-        <v>228</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300207</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>6.02</v>
@@ -2057,7 +2237,7 @@
         <v>352955.16</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K12">
         <v>9</v>
@@ -2098,8 +2278,23 @@
       <c r="W12">
         <v>0.32</v>
       </c>
+      <c r="Y12">
+        <v>-4.43</v>
+      </c>
+      <c r="Z12">
+        <v>30.83</v>
+      </c>
+      <c r="AA12">
+        <v>1.12</v>
+      </c>
       <c r="AC12" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2107,22 +2302,25 @@
       <c r="AG12">
         <v>4.481572151184082</v>
       </c>
-      <c r="AH12" t="s">
-        <v>228</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300209</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>2.6</v>
@@ -2140,7 +2338,7 @@
         <v>39550.3</v>
       </c>
       <c r="J13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -2182,10 +2380,25 @@
         <v>-0.2</v>
       </c>
       <c r="X13" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="Y13">
+        <v>-4.98</v>
+      </c>
+      <c r="Z13">
+        <v>6.48</v>
+      </c>
+      <c r="AA13">
+        <v>-3.43</v>
       </c>
       <c r="AC13" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2193,22 +2406,25 @@
       <c r="AG13">
         <v>1.443278551101685</v>
       </c>
-      <c r="AH13" t="s">
-        <v>228</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300217</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>0.97</v>
@@ -2226,7 +2442,7 @@
         <v>66806.85000000001</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K14">
         <v>6</v>
@@ -2268,10 +2484,25 @@
         <v>0.15</v>
       </c>
       <c r="X14" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="Y14">
+        <v>-2.9</v>
+      </c>
+      <c r="Z14">
+        <v>6.29</v>
+      </c>
+      <c r="AA14">
+        <v>0.32</v>
       </c>
       <c r="AC14" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2279,22 +2510,25 @@
       <c r="AG14">
         <v>3.691794872283936</v>
       </c>
-      <c r="AH14" t="s">
-        <v>228</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300237</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-0.27</v>
@@ -2312,7 +2546,7 @@
         <v>44041.9</v>
       </c>
       <c r="J15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K15">
         <v>15</v>
@@ -2354,10 +2588,25 @@
         <v>-0.57</v>
       </c>
       <c r="X15" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="Y15">
+        <v>-5.05</v>
+      </c>
+      <c r="Z15">
+        <v>3.8</v>
+      </c>
+      <c r="AA15">
+        <v>1.88</v>
       </c>
       <c r="AC15" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2365,22 +2614,25 @@
       <c r="AG15">
         <v>-5.991922378540039</v>
       </c>
-      <c r="AH15" t="s">
-        <v>228</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300252</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-1.17</v>
@@ -2398,7 +2650,7 @@
         <v>121865.15</v>
       </c>
       <c r="J16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -2440,10 +2692,25 @@
         <v>-0.59</v>
       </c>
       <c r="X16" t="s">
-        <v>176</v>
+        <v>177</v>
+      </c>
+      <c r="Y16">
+        <v>-2.89</v>
+      </c>
+      <c r="Z16">
+        <v>16.16</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
       </c>
       <c r="AC16" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2451,22 +2718,25 @@
       <c r="AG16">
         <v>1.457520723342896</v>
       </c>
-      <c r="AH16" t="s">
-        <v>228</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300274</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-0.11</v>
@@ -2484,7 +2754,7 @@
         <v>946807.6</v>
       </c>
       <c r="J17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K17">
         <v>11</v>
@@ -2526,10 +2796,25 @@
         <v>-0.03</v>
       </c>
       <c r="X17" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="Y17">
+        <v>1.11</v>
+      </c>
+      <c r="Z17">
+        <v>148.11</v>
+      </c>
+      <c r="AA17">
+        <v>5.68</v>
       </c>
       <c r="AC17" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2537,22 +2822,25 @@
       <c r="AG17">
         <v>4.925380706787109</v>
       </c>
-      <c r="AH17" t="s">
-        <v>228</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300290</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-0.47</v>
@@ -2570,7 +2858,7 @@
         <v>83995.55</v>
       </c>
       <c r="J18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K18">
         <v>7</v>
@@ -2612,10 +2900,25 @@
         <v>-0.3</v>
       </c>
       <c r="X18" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="Y18">
+        <v>-11.32</v>
+      </c>
+      <c r="Z18">
+        <v>31.44</v>
+      </c>
+      <c r="AA18">
+        <v>-0.82</v>
       </c>
       <c r="AC18" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2623,22 +2926,25 @@
       <c r="AG18">
         <v>7.61074686050415</v>
       </c>
-      <c r="AH18" t="s">
-        <v>228</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300324</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>3.13</v>
@@ -2656,7 +2962,7 @@
         <v>145809.7</v>
       </c>
       <c r="J19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K19">
         <v>5</v>
@@ -2698,10 +3004,25 @@
         <v>0.03</v>
       </c>
       <c r="X19" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="Y19">
+        <v>-4.6</v>
+      </c>
+      <c r="Z19">
+        <v>7.88</v>
+      </c>
+      <c r="AA19">
+        <v>3.96</v>
       </c>
       <c r="AC19" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2709,22 +3030,25 @@
       <c r="AG19">
         <v>2.941008329391479</v>
       </c>
-      <c r="AH19" t="s">
-        <v>228</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300328</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>10.62</v>
@@ -2742,7 +3066,7 @@
         <v>153907.48</v>
       </c>
       <c r="J20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -2784,10 +3108,25 @@
         <v>0.88</v>
       </c>
       <c r="X20" t="s">
-        <v>180</v>
+        <v>181</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>19.99</v>
+      </c>
+      <c r="AA20">
+        <v>2.09</v>
       </c>
       <c r="AC20" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>1</v>
@@ -2795,22 +3134,25 @@
       <c r="AG20">
         <v>15.13687038421631</v>
       </c>
-      <c r="AH20" t="s">
-        <v>229</v>
+      <c r="AH20">
+        <v>1</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300331</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>9.09</v>
@@ -2828,7 +3170,7 @@
         <v>169512.72</v>
       </c>
       <c r="J21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K21">
         <v>9</v>
@@ -2870,10 +3212,25 @@
         <v>0.34</v>
       </c>
       <c r="X21" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="Y21">
+        <v>0.55</v>
+      </c>
+      <c r="Z21">
+        <v>42.29</v>
+      </c>
+      <c r="AA21">
+        <v>15.55</v>
       </c>
       <c r="AC21" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2881,22 +3238,25 @@
       <c r="AG21">
         <v>5.176600456237793</v>
       </c>
-      <c r="AH21" t="s">
-        <v>228</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300363</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-0.43</v>
@@ -2914,7 +3274,7 @@
         <v>51527.8</v>
       </c>
       <c r="J22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K22">
         <v>4</v>
@@ -2956,10 +3316,25 @@
         <v>0.16</v>
       </c>
       <c r="X22" t="s">
-        <v>182</v>
+        <v>183</v>
+      </c>
+      <c r="Y22">
+        <v>-2.19</v>
+      </c>
+      <c r="Z22">
+        <v>28.24</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
       </c>
       <c r="AC22" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2967,22 +3342,25 @@
       <c r="AG22">
         <v>26.25178718566895</v>
       </c>
-      <c r="AH22" t="s">
-        <v>228</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300428</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-3.74</v>
@@ -3000,7 +3378,7 @@
         <v>60542.86</v>
       </c>
       <c r="J23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K23">
         <v>6</v>
@@ -3042,10 +3420,25 @@
         <v>-0.21</v>
       </c>
       <c r="X23" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="Y23">
+        <v>-4.53</v>
+      </c>
+      <c r="Z23">
+        <v>24.9</v>
+      </c>
+      <c r="AA23">
+        <v>-0.24</v>
       </c>
       <c r="AC23" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -3053,22 +3446,25 @@
       <c r="AG23">
         <v>-0.1865212321281433</v>
       </c>
-      <c r="AH23" t="s">
-        <v>228</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300457</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>7.82</v>
@@ -3086,7 +3482,7 @@
         <v>226005.61</v>
       </c>
       <c r="J24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K24">
         <v>12</v>
@@ -3128,10 +3524,25 @@
         <v>0.4</v>
       </c>
       <c r="X24" t="s">
-        <v>184</v>
+        <v>185</v>
+      </c>
+      <c r="Y24">
+        <v>0.03</v>
+      </c>
+      <c r="Z24">
+        <v>35.88</v>
+      </c>
+      <c r="AA24">
+        <v>0.8100000000000001</v>
       </c>
       <c r="AC24" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -3139,22 +3550,25 @@
       <c r="AG24">
         <v>-0.5826435685157776</v>
       </c>
-      <c r="AH24" t="s">
-        <v>228</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300469</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>11.69</v>
@@ -3172,7 +3586,7 @@
         <v>133667.17</v>
       </c>
       <c r="J25" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K25">
         <v>20</v>
@@ -3214,10 +3628,25 @@
         <v>0.03</v>
       </c>
       <c r="X25" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="Y25">
+        <v>-0.01</v>
+      </c>
+      <c r="Z25">
+        <v>92.5</v>
+      </c>
+      <c r="AA25">
+        <v>3.34</v>
       </c>
       <c r="AC25" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3225,22 +3654,25 @@
       <c r="AG25">
         <v>4.741894245147705</v>
       </c>
-      <c r="AH25" t="s">
-        <v>228</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300475</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>4.07</v>
@@ -3258,7 +3690,7 @@
         <v>253025.18</v>
       </c>
       <c r="J26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K26">
         <v>9</v>
@@ -3300,10 +3732,25 @@
         <v>0.43</v>
       </c>
       <c r="X26" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+      <c r="Y26">
+        <v>-3.69</v>
+      </c>
+      <c r="Z26">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="AA26">
+        <v>2.15</v>
       </c>
       <c r="AC26" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3311,22 +3758,25 @@
       <c r="AG26">
         <v>1.566743969917297</v>
       </c>
-      <c r="AH26" t="s">
-        <v>228</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300476</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-4.82</v>
@@ -3344,7 +3794,7 @@
         <v>1619106.92</v>
       </c>
       <c r="J27" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K27">
         <v>71</v>
@@ -3386,10 +3836,25 @@
         <v>-0.47</v>
       </c>
       <c r="X27" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="Y27">
+        <v>-3.11</v>
+      </c>
+      <c r="Z27">
+        <v>339.39</v>
+      </c>
+      <c r="AA27">
+        <v>2.76</v>
       </c>
       <c r="AC27" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3397,22 +3862,25 @@
       <c r="AG27">
         <v>-0.2799830734729767</v>
       </c>
-      <c r="AH27" t="s">
-        <v>228</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300478</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-0.08</v>
@@ -3430,7 +3898,7 @@
         <v>31992.41</v>
       </c>
       <c r="J28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -3472,10 +3940,25 @@
         <v>-0.26</v>
       </c>
       <c r="X28" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="Y28">
+        <v>-3.48</v>
+      </c>
+      <c r="Z28">
+        <v>27.87</v>
+      </c>
+      <c r="AA28">
+        <v>4.62</v>
       </c>
       <c r="AC28" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3483,22 +3966,25 @@
       <c r="AG28">
         <v>-0.7035537958145142</v>
       </c>
-      <c r="AH28" t="s">
-        <v>228</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>300499</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>5.1</v>
@@ -3516,7 +4002,7 @@
         <v>176831.04</v>
       </c>
       <c r="J29" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -3558,10 +4044,25 @@
         <v>1.79</v>
       </c>
       <c r="X29" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="Y29">
+        <v>6.97</v>
+      </c>
+      <c r="Z29">
+        <v>35.85</v>
+      </c>
+      <c r="AA29">
+        <v>10.07</v>
       </c>
       <c r="AC29" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3569,22 +4070,25 @@
       <c r="AG29">
         <v>2.031217575073242</v>
       </c>
-      <c r="AH29" t="s">
-        <v>228</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>300503</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>6.26</v>
@@ -3602,7 +4106,7 @@
         <v>91454.08</v>
       </c>
       <c r="J30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3644,10 +4148,25 @@
         <v>-0.05</v>
       </c>
       <c r="X30" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="Y30">
+        <v>-3.8</v>
+      </c>
+      <c r="Z30">
+        <v>34.85</v>
+      </c>
+      <c r="AA30">
+        <v>1.66</v>
       </c>
       <c r="AC30" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3655,22 +4174,25 @@
       <c r="AG30">
         <v>1.744978785514832</v>
       </c>
-      <c r="AH30" t="s">
-        <v>228</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>300528</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-7.08</v>
@@ -3688,7 +4210,7 @@
         <v>105420.54</v>
       </c>
       <c r="J31" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K31">
         <v>7</v>
@@ -3730,10 +4252,25 @@
         <v>-1.23</v>
       </c>
       <c r="X31" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="Y31">
+        <v>-4.85</v>
+      </c>
+      <c r="Z31">
+        <v>29.6</v>
+      </c>
+      <c r="AA31">
+        <v>4.45</v>
       </c>
       <c r="AC31" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3741,22 +4278,25 @@
       <c r="AG31">
         <v>2.222832202911377</v>
       </c>
-      <c r="AH31" t="s">
-        <v>228</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>300539</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>2.02</v>
@@ -3774,7 +4314,7 @@
         <v>84576.53999999999</v>
       </c>
       <c r="J32" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K32">
         <v>9</v>
@@ -3816,10 +4356,25 @@
         <v>1.33</v>
       </c>
       <c r="X32" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="Y32">
+        <v>3.53</v>
+      </c>
+      <c r="Z32">
+        <v>47.58</v>
+      </c>
+      <c r="AA32">
+        <v>23.91</v>
       </c>
       <c r="AC32" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3827,22 +4382,25 @@
       <c r="AG32">
         <v>3.352897644042969</v>
       </c>
-      <c r="AH32" t="s">
-        <v>228</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>300604</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>4.84</v>
@@ -3860,7 +4418,7 @@
         <v>176480.27</v>
       </c>
       <c r="J33" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K33">
         <v>16</v>
@@ -3901,8 +4459,23 @@
       <c r="W33">
         <v>0.22</v>
       </c>
+      <c r="Y33">
+        <v>0.22</v>
+      </c>
+      <c r="Z33">
+        <v>68.88</v>
+      </c>
+      <c r="AA33">
+        <v>10.01</v>
+      </c>
       <c r="AC33" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3910,22 +4483,25 @@
       <c r="AG33">
         <v>2.986658096313477</v>
       </c>
-      <c r="AH33" t="s">
-        <v>228</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>300620</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>4.34</v>
@@ -3943,7 +4519,7 @@
         <v>179420.86</v>
       </c>
       <c r="J34" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K34">
         <v>6</v>
@@ -3985,10 +4561,25 @@
         <v>0.31</v>
       </c>
       <c r="X34" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="Y34">
+        <v>15</v>
+      </c>
+      <c r="Z34">
+        <v>128.52</v>
+      </c>
+      <c r="AA34">
+        <v>22.63</v>
       </c>
       <c r="AC34" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3996,22 +4587,25 @@
       <c r="AG34">
         <v>7.129764556884766</v>
       </c>
-      <c r="AH34" t="s">
-        <v>228</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>300660</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>1.55</v>
@@ -4029,7 +4623,7 @@
         <v>204802.01</v>
       </c>
       <c r="J35" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -4071,10 +4665,25 @@
         <v>-0.16</v>
       </c>
       <c r="X35" t="s">
-        <v>190</v>
+        <v>191</v>
+      </c>
+      <c r="Y35">
+        <v>2.43</v>
+      </c>
+      <c r="Z35">
+        <v>65.78</v>
+      </c>
+      <c r="AA35">
+        <v>4.5</v>
       </c>
       <c r="AC35" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -4082,22 +4691,25 @@
       <c r="AG35">
         <v>20.513427734375</v>
       </c>
-      <c r="AH35" t="s">
-        <v>228</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>300680</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>0.37</v>
@@ -4115,7 +4727,7 @@
         <v>86756.36</v>
       </c>
       <c r="J36" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K36">
         <v>5</v>
@@ -4157,10 +4769,25 @@
         <v>-0.11</v>
       </c>
       <c r="X36" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="Y36">
+        <v>-5.22</v>
+      </c>
+      <c r="Z36">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="AA36">
+        <v>8.609999999999999</v>
       </c>
       <c r="AC36" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -4168,22 +4795,25 @@
       <c r="AG36">
         <v>1.909213781356812</v>
       </c>
-      <c r="AH36" t="s">
-        <v>228</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>300684</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>15.09</v>
@@ -4201,7 +4831,7 @@
         <v>189583.87</v>
       </c>
       <c r="J37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -4243,10 +4873,25 @@
         <v>-0.25</v>
       </c>
       <c r="X37" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="Y37">
+        <v>0.87</v>
+      </c>
+      <c r="Z37">
+        <v>48.48</v>
+      </c>
+      <c r="AA37">
+        <v>7.73</v>
       </c>
       <c r="AC37" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4254,22 +4899,25 @@
       <c r="AG37">
         <v>-6.555997371673584</v>
       </c>
-      <c r="AH37" t="s">
-        <v>228</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>300697</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>3.39</v>
@@ -4287,7 +4935,7 @@
         <v>84550.86</v>
       </c>
       <c r="J38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -4329,10 +4977,25 @@
         <v>0.79</v>
       </c>
       <c r="X38" t="s">
-        <v>193</v>
+        <v>194</v>
+      </c>
+      <c r="Y38">
+        <v>-9.949999999999999</v>
+      </c>
+      <c r="Z38">
+        <v>18.56</v>
+      </c>
+      <c r="AA38">
+        <v>3.05</v>
       </c>
       <c r="AC38" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4340,22 +5003,25 @@
       <c r="AG38">
         <v>0.7130165696144104</v>
       </c>
-      <c r="AH38" t="s">
-        <v>228</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>300727</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>-4.5</v>
@@ -4373,7 +5039,7 @@
         <v>46248.85</v>
       </c>
       <c r="J39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K39">
         <v>24</v>
@@ -4415,10 +5081,25 @@
         <v>-0.38</v>
       </c>
       <c r="X39" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="Y39">
+        <v>0.57</v>
+      </c>
+      <c r="Z39">
+        <v>45.13</v>
+      </c>
+      <c r="AA39">
+        <v>1.3</v>
       </c>
       <c r="AC39" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4426,22 +5107,25 @@
       <c r="AG39">
         <v>-1.1590416431427</v>
       </c>
-      <c r="AH39" t="s">
-        <v>228</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>300757</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>-1.87</v>
@@ -4459,7 +5143,7 @@
         <v>193997.89</v>
       </c>
       <c r="J40" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K40">
         <v>18</v>
@@ -4501,10 +5185,25 @@
         <v>-0.18</v>
       </c>
       <c r="X40" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="Y40">
+        <v>-2.51</v>
+      </c>
+      <c r="Z40">
+        <v>306.68</v>
+      </c>
+      <c r="AA40">
+        <v>5.61</v>
       </c>
       <c r="AC40" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4512,22 +5211,25 @@
       <c r="AG40">
         <v>4.564655780792236</v>
       </c>
-      <c r="AH40" t="s">
-        <v>228</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>300790</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>4.2</v>
@@ -4545,7 +5247,7 @@
         <v>68783.53999999999</v>
       </c>
       <c r="J41" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K41">
         <v>12</v>
@@ -4586,8 +5288,23 @@
       <c r="W41">
         <v>0.6899999999999999</v>
       </c>
+      <c r="Y41">
+        <v>-0.46</v>
+      </c>
+      <c r="Z41">
+        <v>35.47</v>
+      </c>
+      <c r="AA41">
+        <v>0.77</v>
+      </c>
       <c r="AC41" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4595,22 +5312,25 @@
       <c r="AG41">
         <v>1.677183985710144</v>
       </c>
-      <c r="AH41" t="s">
-        <v>228</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>300803</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>10.85</v>
@@ -4628,7 +5348,7 @@
         <v>734725.0699999999</v>
       </c>
       <c r="J42" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K42">
         <v>27</v>
@@ -4670,10 +5390,25 @@
         <v>0.13</v>
       </c>
       <c r="X42" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="Y42">
+        <v>-8.039999999999999</v>
+      </c>
+      <c r="Z42">
+        <v>169.13</v>
+      </c>
+      <c r="AA42">
+        <v>-3.25</v>
       </c>
       <c r="AC42" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4681,22 +5416,25 @@
       <c r="AG42">
         <v>-0.4935606122016907</v>
       </c>
-      <c r="AH42" t="s">
-        <v>228</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>300814</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-2.17</v>
@@ -4714,7 +5452,7 @@
         <v>57032.19</v>
       </c>
       <c r="J43" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -4756,10 +5494,25 @@
         <v>-0.33</v>
       </c>
       <c r="X43" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+      <c r="Y43">
+        <v>-2.41</v>
+      </c>
+      <c r="Z43">
+        <v>51.66</v>
+      </c>
+      <c r="AA43">
+        <v>2.14</v>
       </c>
       <c r="AC43" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4767,22 +5520,25 @@
       <c r="AG43">
         <v>-16.1762809753418</v>
       </c>
-      <c r="AH43" t="s">
-        <v>228</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>300852</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>1.63</v>
@@ -4800,7 +5556,7 @@
         <v>49466.55</v>
       </c>
       <c r="J44" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K44">
         <v>4</v>
@@ -4842,10 +5598,25 @@
         <v>0.04</v>
       </c>
       <c r="X44" t="s">
-        <v>197</v>
+        <v>198</v>
+      </c>
+      <c r="Y44">
+        <v>-5.17</v>
+      </c>
+      <c r="Z44">
+        <v>48.19</v>
+      </c>
+      <c r="AA44">
+        <v>4.22</v>
       </c>
       <c r="AC44" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4853,22 +5624,25 @@
       <c r="AG44">
         <v>4.210673809051514</v>
       </c>
-      <c r="AH44" t="s">
-        <v>228</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>300857</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>3.82</v>
@@ -4886,7 +5660,7 @@
         <v>273619.81</v>
       </c>
       <c r="J45" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K45">
         <v>19</v>
@@ -4928,10 +5702,25 @@
         <v>0.19</v>
       </c>
       <c r="X45" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="Y45">
+        <v>-2.74</v>
+      </c>
+      <c r="Z45">
+        <v>170</v>
+      </c>
+      <c r="AA45">
+        <v>4.3</v>
       </c>
       <c r="AC45" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4939,22 +5728,25 @@
       <c r="AG45">
         <v>1.691953897476196</v>
       </c>
-      <c r="AH45" t="s">
-        <v>228</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>300918</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>-2.9</v>
@@ -4972,7 +5764,7 @@
         <v>80960.72</v>
       </c>
       <c r="J46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -5014,10 +5806,25 @@
         <v>-0.52</v>
       </c>
       <c r="X46" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="Y46">
+        <v>-3.43</v>
+      </c>
+      <c r="Z46">
+        <v>25.78</v>
+      </c>
+      <c r="AA46">
+        <v>1.34</v>
       </c>
       <c r="AC46" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -5025,22 +5832,25 @@
       <c r="AG46">
         <v>4.885869979858398</v>
       </c>
-      <c r="AH46" t="s">
-        <v>228</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>300953</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>2.31</v>
@@ -5058,7 +5868,7 @@
         <v>135667.3</v>
       </c>
       <c r="J47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K47">
         <v>16</v>
@@ -5100,10 +5910,25 @@
         <v>-0.05</v>
       </c>
       <c r="X47" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="Y47">
+        <v>-2.07</v>
+      </c>
+      <c r="Z47">
+        <v>185</v>
+      </c>
+      <c r="AA47">
+        <v>4.1</v>
       </c>
       <c r="AC47" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -5111,22 +5936,25 @@
       <c r="AG47">
         <v>16.54938697814941</v>
       </c>
-      <c r="AH47" t="s">
-        <v>228</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>300959</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>16.05</v>
@@ -5144,7 +5972,7 @@
         <v>112821.81</v>
       </c>
       <c r="J48" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -5186,10 +6014,25 @@
         <v>-2.1</v>
       </c>
       <c r="X48" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+      <c r="Y48">
+        <v>-10.37</v>
+      </c>
+      <c r="Z48">
+        <v>81.66</v>
+      </c>
+      <c r="AA48">
+        <v>2.1</v>
       </c>
       <c r="AC48" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -5197,22 +6040,25 @@
       <c r="AG48">
         <v>3.291587829589844</v>
       </c>
-      <c r="AH48" t="s">
-        <v>228</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>300990</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>3.13</v>
@@ -5230,7 +6076,7 @@
         <v>39216.41</v>
       </c>
       <c r="J49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K49">
         <v>5</v>
@@ -5272,10 +6118,25 @@
         <v>-0.12</v>
       </c>
       <c r="X49" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="Y49">
+        <v>-2.87</v>
+      </c>
+      <c r="Z49">
+        <v>87.01000000000001</v>
+      </c>
+      <c r="AA49">
+        <v>-0.5</v>
       </c>
       <c r="AC49" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5283,22 +6144,25 @@
       <c r="AG49">
         <v>17.45559310913086</v>
       </c>
-      <c r="AH49" t="s">
-        <v>228</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>301008</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>13.86</v>
@@ -5316,7 +6180,7 @@
         <v>80022.67999999999</v>
       </c>
       <c r="J50" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -5358,10 +6222,25 @@
         <v>0.31</v>
       </c>
       <c r="X50" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="Y50">
+        <v>4.62</v>
+      </c>
+      <c r="Z50">
+        <v>47.85</v>
+      </c>
+      <c r="AA50">
+        <v>10.13</v>
       </c>
       <c r="AC50" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>1</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5369,22 +6248,25 @@
       <c r="AG50">
         <v>3.239137649536133</v>
       </c>
-      <c r="AH50" t="s">
-        <v>228</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>301018</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>2.42</v>
@@ -5402,7 +6284,7 @@
         <v>95622</v>
       </c>
       <c r="J51" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -5444,10 +6326,25 @@
         <v>0.67</v>
       </c>
       <c r="X51" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="Y51">
+        <v>8.23</v>
+      </c>
+      <c r="Z51">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="AA51">
+        <v>9.460000000000001</v>
       </c>
       <c r="AC51" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>1</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5455,22 +6352,25 @@
       <c r="AG51">
         <v>3.21154260635376</v>
       </c>
-      <c r="AH51" t="s">
-        <v>228</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>301076</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>1.97</v>
@@ -5488,7 +6388,7 @@
         <v>147499.37</v>
       </c>
       <c r="J52" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K52">
         <v>8</v>
@@ -5530,10 +6430,25 @@
         <v>0.09</v>
       </c>
       <c r="X52" t="s">
-        <v>202</v>
+        <v>203</v>
+      </c>
+      <c r="Y52">
+        <v>-9.029999999999999</v>
+      </c>
+      <c r="Z52">
+        <v>60.35</v>
+      </c>
+      <c r="AA52">
+        <v>-3.76</v>
       </c>
       <c r="AC52" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5541,22 +6456,25 @@
       <c r="AG52">
         <v>4.228359699249268</v>
       </c>
-      <c r="AH52" t="s">
-        <v>228</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>301110</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>1.7</v>
@@ -5574,7 +6492,7 @@
         <v>32968.18</v>
       </c>
       <c r="J53" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -5616,10 +6534,25 @@
         <v>-0.03</v>
       </c>
       <c r="X53" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="Y53">
+        <v>-5.13</v>
+      </c>
+      <c r="Z53">
+        <v>81.81</v>
+      </c>
+      <c r="AA53">
+        <v>2.15</v>
       </c>
       <c r="AC53" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5627,22 +6560,25 @@
       <c r="AG53">
         <v>3.713185548782349</v>
       </c>
-      <c r="AH53" t="s">
-        <v>228</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>301123</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>0.4</v>
@@ -5660,7 +6596,7 @@
         <v>53651.93</v>
       </c>
       <c r="J54" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K54">
         <v>5</v>
@@ -5702,10 +6638,25 @@
         <v>-0.19</v>
       </c>
       <c r="X54" t="s">
-        <v>204</v>
+        <v>205</v>
+      </c>
+      <c r="Y54">
+        <v>-2.79</v>
+      </c>
+      <c r="Z54">
+        <v>51.27</v>
+      </c>
+      <c r="AA54">
+        <v>7.24</v>
       </c>
       <c r="AC54" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>1</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5713,22 +6664,25 @@
       <c r="AG54">
         <v>0.9010637998580933</v>
       </c>
-      <c r="AH54" t="s">
-        <v>228</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>301150</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>-0.05</v>
@@ -5746,7 +6700,7 @@
         <v>71887.71000000001</v>
       </c>
       <c r="J55" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K55">
         <v>12</v>
@@ -5788,10 +6742,25 @@
         <v>0.74</v>
       </c>
       <c r="X55" t="s">
-        <v>205</v>
+        <v>206</v>
+      </c>
+      <c r="Y55">
+        <v>-2.19</v>
+      </c>
+      <c r="Z55">
+        <v>41.38</v>
+      </c>
+      <c r="AA55">
+        <v>0.12</v>
       </c>
       <c r="AC55" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5799,22 +6768,25 @@
       <c r="AG55">
         <v>-0.5769438147544861</v>
       </c>
-      <c r="AH55" t="s">
-        <v>228</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>301307</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-1.31</v>
@@ -5832,7 +6804,7 @@
         <v>89541.61</v>
       </c>
       <c r="J56" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K56">
         <v>6</v>
@@ -5874,10 +6846,25 @@
         <v>-1.24</v>
       </c>
       <c r="X56" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="Y56">
+        <v>4.86</v>
+      </c>
+      <c r="Z56">
+        <v>43.98</v>
+      </c>
+      <c r="AA56">
+        <v>10.36</v>
       </c>
       <c r="AC56" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5885,22 +6872,25 @@
       <c r="AG56">
         <v>0.261050671339035</v>
       </c>
-      <c r="AH56" t="s">
-        <v>228</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>301377</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>-2.01</v>
@@ -5918,7 +6908,7 @@
         <v>39797.53</v>
       </c>
       <c r="J57" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K57">
         <v>6</v>
@@ -5960,10 +6950,25 @@
         <v>-0.66</v>
       </c>
       <c r="X57" t="s">
-        <v>207</v>
+        <v>208</v>
+      </c>
+      <c r="Y57">
+        <v>-2.28</v>
+      </c>
+      <c r="Z57">
+        <v>86.48</v>
+      </c>
+      <c r="AA57">
+        <v>2.05</v>
       </c>
       <c r="AC57" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5971,22 +6976,25 @@
       <c r="AG57">
         <v>0.3393882811069489</v>
       </c>
-      <c r="AH57" t="s">
-        <v>228</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>301396</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>2.43</v>
@@ -6004,7 +7012,7 @@
         <v>76926.53</v>
       </c>
       <c r="J58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -6046,10 +7054,25 @@
         <v>-0.06</v>
       </c>
       <c r="X58" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="Y58">
+        <v>-1.91</v>
+      </c>
+      <c r="Z58">
+        <v>80.98999999999999</v>
+      </c>
+      <c r="AA58">
+        <v>2</v>
       </c>
       <c r="AC58" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -6057,22 +7080,25 @@
       <c r="AG58">
         <v>1.910667061805725</v>
       </c>
-      <c r="AH58" t="s">
-        <v>228</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>301398</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>3.45</v>
@@ -6090,7 +7116,7 @@
         <v>48824.98</v>
       </c>
       <c r="J59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K59">
         <v>5</v>
@@ -6132,10 +7158,25 @@
         <v>1.71</v>
       </c>
       <c r="X59" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="Y59">
+        <v>-6.14</v>
+      </c>
+      <c r="Z59">
+        <v>56.5</v>
+      </c>
+      <c r="AA59">
+        <v>-1.24</v>
       </c>
       <c r="AC59" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -6143,22 +7184,25 @@
       <c r="AG59">
         <v>0.461787074804306</v>
       </c>
-      <c r="AH59" t="s">
-        <v>228</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>301413</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>6.4</v>
@@ -6176,7 +7220,7 @@
         <v>131720.56</v>
       </c>
       <c r="J60" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K60">
         <v>19</v>
@@ -6218,10 +7262,25 @@
         <v>0.35</v>
       </c>
       <c r="X60" t="s">
-        <v>210</v>
+        <v>211</v>
+      </c>
+      <c r="Y60">
+        <v>-3.83</v>
+      </c>
+      <c r="Z60">
+        <v>196.4</v>
+      </c>
+      <c r="AA60">
+        <v>2.49</v>
       </c>
       <c r="AC60" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -6229,22 +7288,25 @@
       <c r="AG60">
         <v>0.7726811170578003</v>
       </c>
-      <c r="AH60" t="s">
-        <v>228</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>301488</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>10.02</v>
@@ -6262,7 +7324,7 @@
         <v>151222.22</v>
       </c>
       <c r="J61" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K61">
         <v>16</v>
@@ -6304,10 +7366,25 @@
         <v>-0.75</v>
       </c>
       <c r="X61" t="s">
-        <v>211</v>
+        <v>212</v>
+      </c>
+      <c r="Y61">
+        <v>-4.14</v>
+      </c>
+      <c r="Z61">
+        <v>218.5</v>
+      </c>
+      <c r="AA61">
+        <v>4.05</v>
       </c>
       <c r="AC61" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6315,22 +7392,25 @@
       <c r="AG61">
         <v>-4.747542858123779</v>
       </c>
-      <c r="AH61" t="s">
-        <v>228</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34">
+    <row r="62" spans="1:35">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C62">
         <v>301550</v>
       </c>
       <c r="D62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E62">
         <v>0.03</v>
@@ -6348,7 +7428,7 @@
         <v>71148.25</v>
       </c>
       <c r="J62" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -6390,10 +7470,25 @@
         <v>0.48</v>
       </c>
       <c r="X62" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="Y62">
+        <v>0.31</v>
+      </c>
+      <c r="Z62">
+        <v>141.26</v>
+      </c>
+      <c r="AA62">
+        <v>10.02</v>
       </c>
       <c r="AC62" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD62">
+        <v>1</v>
+      </c>
+      <c r="AE62">
+        <v>1</v>
       </c>
       <c r="AF62">
         <v>1</v>
@@ -6401,22 +7496,25 @@
       <c r="AG62">
         <v>100.9610824584961</v>
       </c>
-      <c r="AH62" t="s">
-        <v>229</v>
+      <c r="AH62">
+        <v>1</v>
+      </c>
+      <c r="AI62">
+        <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:34">
+    <row r="63" spans="1:35">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C63">
         <v>301600</v>
       </c>
       <c r="D63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63">
         <v>0.11</v>
@@ -6434,7 +7532,7 @@
         <v>41913.72</v>
       </c>
       <c r="J63" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -6476,10 +7574,25 @@
         <v>-0.05</v>
       </c>
       <c r="X63" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="Y63">
+        <v>-0.95</v>
+      </c>
+      <c r="Z63">
+        <v>159.66</v>
+      </c>
+      <c r="AA63">
+        <v>7.03</v>
       </c>
       <c r="AC63" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6487,22 +7600,25 @@
       <c r="AG63">
         <v>3.50666618347168</v>
       </c>
-      <c r="AH63" t="s">
-        <v>228</v>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34">
+    <row r="64" spans="1:35">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64">
         <v>688017</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E64">
         <v>-0.88</v>
@@ -6520,7 +7636,7 @@
         <v>173338.88</v>
       </c>
       <c r="J64" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -6562,10 +7678,25 @@
         <v>-0.23</v>
       </c>
       <c r="X64" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="Y64">
+        <v>1.57</v>
+      </c>
+      <c r="Z64">
+        <v>192.68</v>
+      </c>
+      <c r="AA64">
+        <v>7.76</v>
       </c>
       <c r="AC64" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AE64">
+        <v>1</v>
       </c>
       <c r="AF64">
         <v>0</v>
@@ -6573,22 +7704,25 @@
       <c r="AG64">
         <v>-9.260210990905762</v>
       </c>
-      <c r="AH64" t="s">
-        <v>228</v>
+      <c r="AH64">
+        <v>0</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34">
+    <row r="65" spans="1:35">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C65">
         <v>688028</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E65">
         <v>0.23</v>
@@ -6606,7 +7740,7 @@
         <v>34228.6</v>
       </c>
       <c r="J65" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K65">
         <v>8</v>
@@ -6648,10 +7782,25 @@
         <v>0.15</v>
       </c>
       <c r="X65" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="Y65">
+        <v>13.79</v>
+      </c>
+      <c r="Z65">
+        <v>48.9</v>
+      </c>
+      <c r="AA65">
+        <v>13.06</v>
       </c>
       <c r="AC65" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AE65">
+        <v>1</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -6659,22 +7808,25 @@
       <c r="AG65">
         <v>3.556239604949951</v>
       </c>
-      <c r="AH65" t="s">
-        <v>228</v>
+      <c r="AH65">
+        <v>0</v>
+      </c>
+      <c r="AI65">
+        <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:34">
+    <row r="66" spans="1:35">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C66">
         <v>688041</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66">
         <v>-2.55</v>
@@ -6692,7 +7844,7 @@
         <v>828984.12</v>
       </c>
       <c r="J66" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -6734,10 +7886,25 @@
         <v>-0.15</v>
       </c>
       <c r="X66" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="Y66">
+        <v>0.46</v>
+      </c>
+      <c r="Z66">
+        <v>265</v>
+      </c>
+      <c r="AA66">
+        <v>10.55</v>
       </c>
       <c r="AC66" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>1</v>
       </c>
       <c r="AF66">
         <v>0</v>
@@ -6745,22 +7912,25 @@
       <c r="AG66">
         <v>131.7174530029297</v>
       </c>
-      <c r="AH66" t="s">
-        <v>228</v>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34">
+    <row r="67" spans="1:35">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C67">
         <v>688110</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E67">
         <v>3.96</v>
@@ -6778,7 +7948,7 @@
         <v>261141.81</v>
       </c>
       <c r="J67" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K67">
         <v>4</v>
@@ -6820,10 +7990,25 @@
         <v>-0.11</v>
       </c>
       <c r="X67" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="Y67">
+        <v>-7.49</v>
+      </c>
+      <c r="Z67">
+        <v>133.3</v>
+      </c>
+      <c r="AA67">
+        <v>8.369999999999999</v>
       </c>
       <c r="AC67" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AE67">
+        <v>1</v>
       </c>
       <c r="AF67">
         <v>0</v>
@@ -6831,22 +8016,25 @@
       <c r="AG67">
         <v>3.850247144699097</v>
       </c>
-      <c r="AH67" t="s">
-        <v>228</v>
+      <c r="AH67">
+        <v>0</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34">
+    <row r="68" spans="1:35">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C68">
         <v>688147</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E68">
         <v>5.55</v>
@@ -6864,7 +8052,7 @@
         <v>67913.13</v>
       </c>
       <c r="J68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K68">
         <v>23</v>
@@ -6906,10 +8094,25 @@
         <v>1.39</v>
       </c>
       <c r="X68" t="s">
-        <v>217</v>
+        <v>218</v>
+      </c>
+      <c r="Y68">
+        <v>-3.65</v>
+      </c>
+      <c r="Z68">
+        <v>50.16</v>
+      </c>
+      <c r="AA68">
+        <v>0.28</v>
       </c>
       <c r="AC68" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AE68">
+        <v>0</v>
       </c>
       <c r="AF68">
         <v>0</v>
@@ -6917,22 +8120,25 @@
       <c r="AG68">
         <v>-11.25000286102295</v>
       </c>
-      <c r="AH68" t="s">
-        <v>228</v>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34">
+    <row r="69" spans="1:35">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C69">
         <v>688167</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E69">
         <v>7.67</v>
@@ -6950,7 +8156,7 @@
         <v>146784.59</v>
       </c>
       <c r="J69" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K69">
         <v>9</v>
@@ -6992,10 +8198,25 @@
         <v>0.65</v>
       </c>
       <c r="X69" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="Y69">
+        <v>1.05</v>
+      </c>
+      <c r="Z69">
+        <v>186.22</v>
+      </c>
+      <c r="AA69">
+        <v>4.82</v>
       </c>
       <c r="AC69" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AE69">
+        <v>0</v>
       </c>
       <c r="AF69">
         <v>0</v>
@@ -7003,22 +8224,25 @@
       <c r="AG69">
         <v>0.8782247304916382</v>
       </c>
-      <c r="AH69" t="s">
-        <v>228</v>
+      <c r="AH69">
+        <v>0</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34">
+    <row r="70" spans="1:35">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C70">
         <v>688195</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E70">
         <v>-1.22</v>
@@ -7036,7 +8260,7 @@
         <v>92436.2</v>
       </c>
       <c r="J70" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K70">
         <v>23</v>
@@ -7078,10 +8302,25 @@
         <v>0</v>
       </c>
       <c r="X70" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="Y70">
+        <v>4.51</v>
+      </c>
+      <c r="Z70">
+        <v>124.9</v>
+      </c>
+      <c r="AA70">
+        <v>13.98</v>
       </c>
       <c r="AC70" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AE70">
+        <v>1</v>
       </c>
       <c r="AF70">
         <v>0</v>
@@ -7089,22 +8328,25 @@
       <c r="AG70">
         <v>1.97842001914978</v>
       </c>
-      <c r="AH70" t="s">
-        <v>228</v>
+      <c r="AH70">
+        <v>0</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34">
+    <row r="71" spans="1:35">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C71">
         <v>688205</v>
       </c>
       <c r="D71" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E71">
         <v>12.12</v>
@@ -7122,7 +8364,7 @@
         <v>177944.45</v>
       </c>
       <c r="J71" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -7164,10 +8406,25 @@
         <v>0.96</v>
       </c>
       <c r="X71" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="Y71">
+        <v>20</v>
+      </c>
+      <c r="Z71">
+        <v>140.4</v>
+      </c>
+      <c r="AA71">
+        <v>18.58</v>
       </c>
       <c r="AC71" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AE71">
+        <v>1</v>
       </c>
       <c r="AF71">
         <v>0</v>
@@ -7175,22 +8432,25 @@
       <c r="AG71">
         <v>1.690485000610352</v>
       </c>
-      <c r="AH71" t="s">
-        <v>228</v>
+      <c r="AH71">
+        <v>0</v>
+      </c>
+      <c r="AI71">
+        <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:34">
+    <row r="72" spans="1:35">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>688228</v>
       </c>
       <c r="D72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E72">
         <v>-2.43</v>
@@ -7208,7 +8468,7 @@
         <v>60307.28</v>
       </c>
       <c r="J72" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K72">
         <v>6</v>
@@ -7250,10 +8510,25 @@
         <v>-0.36</v>
       </c>
       <c r="X72" t="s">
-        <v>220</v>
+        <v>221</v>
+      </c>
+      <c r="Y72">
+        <v>-2.95</v>
+      </c>
+      <c r="Z72">
+        <v>187</v>
+      </c>
+      <c r="AA72">
+        <v>7.44</v>
       </c>
       <c r="AC72" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD72">
+        <v>0</v>
+      </c>
+      <c r="AE72">
+        <v>1</v>
       </c>
       <c r="AF72">
         <v>0</v>
@@ -7261,22 +8536,25 @@
       <c r="AG72">
         <v>1.933876395225525</v>
       </c>
-      <c r="AH72" t="s">
-        <v>228</v>
+      <c r="AH72">
+        <v>0</v>
+      </c>
+      <c r="AI72">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34">
+    <row r="73" spans="1:35">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>688347</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73">
         <v>3.95</v>
@@ -7294,7 +8572,7 @@
         <v>177173.29</v>
       </c>
       <c r="J73" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K73">
         <v>5</v>
@@ -7336,10 +8614,25 @@
         <v>0.37</v>
       </c>
       <c r="X73" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="Y73">
+        <v>2.23</v>
+      </c>
+      <c r="Z73">
+        <v>88.88</v>
+      </c>
+      <c r="AA73">
+        <v>11.18</v>
       </c>
       <c r="AC73" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD73">
+        <v>0</v>
+      </c>
+      <c r="AE73">
+        <v>1</v>
       </c>
       <c r="AF73">
         <v>0</v>
@@ -7347,22 +8640,25 @@
       <c r="AG73">
         <v>3.309524297714233</v>
       </c>
-      <c r="AH73" t="s">
-        <v>228</v>
+      <c r="AH73">
+        <v>0</v>
+      </c>
+      <c r="AI73">
+        <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:34">
+    <row r="74" spans="1:35">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C74">
         <v>688388</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E74">
         <v>4.52</v>
@@ -7380,7 +8676,7 @@
         <v>88767.17</v>
       </c>
       <c r="J74" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K74">
         <v>12</v>
@@ -7422,10 +8718,25 @@
         <v>0.29</v>
       </c>
       <c r="X74" t="s">
-        <v>222</v>
+        <v>223</v>
+      </c>
+      <c r="Y74">
+        <v>-3.44</v>
+      </c>
+      <c r="Z74">
+        <v>35.2</v>
+      </c>
+      <c r="AA74">
+        <v>-2.38</v>
       </c>
       <c r="AC74" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD74">
+        <v>0</v>
+      </c>
+      <c r="AE74">
+        <v>0</v>
       </c>
       <c r="AF74">
         <v>0</v>
@@ -7433,22 +8744,25 @@
       <c r="AG74">
         <v>2.87415623664856</v>
       </c>
-      <c r="AH74" t="s">
-        <v>228</v>
+      <c r="AH74">
+        <v>0</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34">
+    <row r="75" spans="1:35">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75">
         <v>688411</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75">
         <v>-2.07</v>
@@ -7466,7 +8780,7 @@
         <v>56243.42</v>
       </c>
       <c r="J75" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K75">
         <v>12</v>
@@ -7508,10 +8822,25 @@
         <v>0.53</v>
       </c>
       <c r="X75" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="Y75">
+        <v>-5.43</v>
+      </c>
+      <c r="Z75">
+        <v>210.99</v>
+      </c>
+      <c r="AA75">
+        <v>3.28</v>
       </c>
       <c r="AC75" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD75">
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
       </c>
       <c r="AF75">
         <v>0</v>
@@ -7519,22 +8848,25 @@
       <c r="AG75">
         <v>10.52069091796875</v>
       </c>
-      <c r="AH75" t="s">
-        <v>228</v>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34">
+    <row r="76" spans="1:35">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C76">
         <v>688498</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E76">
         <v>3.23</v>
@@ -7552,7 +8884,7 @@
         <v>102951.74</v>
       </c>
       <c r="J76" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K76">
         <v>6</v>
@@ -7594,10 +8926,25 @@
         <v>0.02</v>
       </c>
       <c r="X76" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="Y76">
+        <v>3.18</v>
+      </c>
+      <c r="Z76">
+        <v>415.97</v>
+      </c>
+      <c r="AA76">
+        <v>9.140000000000001</v>
       </c>
       <c r="AC76" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>1</v>
       </c>
       <c r="AF76">
         <v>0</v>
@@ -7605,22 +8952,25 @@
       <c r="AG76">
         <v>4.182564258575439</v>
       </c>
-      <c r="AH76" t="s">
-        <v>228</v>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+      <c r="AI76">
+        <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:34">
+    <row r="77" spans="1:35">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C77">
         <v>688521</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>-4.25</v>
@@ -7638,7 +8988,7 @@
         <v>317882.78</v>
       </c>
       <c r="J77" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K77">
         <v>11</v>
@@ -7680,10 +9030,25 @@
         <v>-0.41</v>
       </c>
       <c r="X77" t="s">
-        <v>225</v>
+        <v>226</v>
+      </c>
+      <c r="Y77">
+        <v>1.27</v>
+      </c>
+      <c r="Z77">
+        <v>185</v>
+      </c>
+      <c r="AA77">
+        <v>6.99</v>
       </c>
       <c r="AC77" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD77">
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
       </c>
       <c r="AF77">
         <v>0</v>
@@ -7691,22 +9056,25 @@
       <c r="AG77">
         <v>1.832149505615234</v>
       </c>
-      <c r="AH77" t="s">
-        <v>228</v>
+      <c r="AH77">
+        <v>0</v>
+      </c>
+      <c r="AI77">
+        <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34">
+    <row r="78" spans="1:35">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C78">
         <v>688559</v>
       </c>
       <c r="D78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>3.58</v>
@@ -7724,7 +9092,7 @@
         <v>60693.9</v>
       </c>
       <c r="J78" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K78">
         <v>9</v>
@@ -7765,8 +9133,23 @@
       <c r="W78">
         <v>0.63</v>
       </c>
+      <c r="Y78">
+        <v>-4.02</v>
+      </c>
+      <c r="Z78">
+        <v>42.5</v>
+      </c>
+      <c r="AA78">
+        <v>0.05</v>
+      </c>
       <c r="AC78" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD78">
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
       </c>
       <c r="AF78">
         <v>0</v>
@@ -7774,22 +9157,25 @@
       <c r="AG78">
         <v>1.778288841247559</v>
       </c>
-      <c r="AH78" t="s">
-        <v>228</v>
+      <c r="AH78">
+        <v>0</v>
+      </c>
+      <c r="AI78">
+        <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34">
+    <row r="79" spans="1:35">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C79">
         <v>688593</v>
       </c>
       <c r="D79" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79">
         <v>-1.31</v>
@@ -7807,7 +9193,7 @@
         <v>35326.85</v>
       </c>
       <c r="J79" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -7848,8 +9234,23 @@
       <c r="W79">
         <v>0.12</v>
       </c>
+      <c r="Y79">
+        <v>5.87</v>
+      </c>
+      <c r="Z79">
+        <v>27</v>
+      </c>
+      <c r="AA79">
+        <v>12.36</v>
+      </c>
       <c r="AC79" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <v>1</v>
       </c>
       <c r="AF79">
         <v>0</v>
@@ -7857,22 +9258,25 @@
       <c r="AG79">
         <v>-2.316405296325684</v>
       </c>
-      <c r="AH79" t="s">
-        <v>228</v>
+      <c r="AH79">
+        <v>0</v>
+      </c>
+      <c r="AI79">
+        <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:34">
+    <row r="80" spans="1:35">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C80">
         <v>688627</v>
       </c>
       <c r="D80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>15.96</v>
@@ -7890,7 +9294,7 @@
         <v>80525.03</v>
       </c>
       <c r="J80" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K80">
         <v>4</v>
@@ -7931,8 +9335,23 @@
       <c r="W80">
         <v>0.96</v>
       </c>
+      <c r="Y80">
+        <v>1.13</v>
+      </c>
+      <c r="Z80">
+        <v>152.96</v>
+      </c>
+      <c r="AA80">
+        <v>6.38</v>
+      </c>
       <c r="AC80" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
       </c>
       <c r="AF80">
         <v>0</v>
@@ -7940,22 +9359,25 @@
       <c r="AG80">
         <v>1.005554676055908</v>
       </c>
-      <c r="AH80" t="s">
-        <v>228</v>
+      <c r="AH80">
+        <v>0</v>
+      </c>
+      <c r="AI80">
+        <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34">
+    <row r="81" spans="1:35">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C81">
         <v>688766</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>1.04</v>
@@ -7973,7 +9395,7 @@
         <v>201802.69</v>
       </c>
       <c r="J81" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -8015,10 +9437,25 @@
         <v>-0.91</v>
       </c>
       <c r="X81" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+      <c r="Y81">
+        <v>-2.66</v>
+      </c>
+      <c r="Z81">
+        <v>107.62</v>
+      </c>
+      <c r="AA81">
+        <v>0.86</v>
       </c>
       <c r="AC81" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
       </c>
       <c r="AF81">
         <v>0</v>
@@ -8026,22 +9463,25 @@
       <c r="AG81">
         <v>8.711864471435547</v>
       </c>
-      <c r="AH81" t="s">
-        <v>228</v>
+      <c r="AH81">
+        <v>0</v>
+      </c>
+      <c r="AI81">
+        <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34">
+    <row r="82" spans="1:35">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C82">
         <v>688981</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E82">
         <v>6.59</v>
@@ -8059,7 +9499,7 @@
         <v>1346023.42</v>
       </c>
       <c r="J82" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K82">
         <v>5</v>
@@ -8100,8 +9540,23 @@
       <c r="W82">
         <v>0.43</v>
       </c>
+      <c r="Y82">
+        <v>4.05</v>
+      </c>
+      <c r="Z82">
+        <v>127.49</v>
+      </c>
+      <c r="AA82">
+        <v>8.960000000000001</v>
+      </c>
       <c r="AC82" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="AD82">
+        <v>0</v>
+      </c>
+      <c r="AE82">
+        <v>1</v>
       </c>
       <c r="AF82">
         <v>0</v>
@@ -8109,8 +9564,11 @@
       <c r="AG82">
         <v>13.93248271942139</v>
       </c>
-      <c r="AH82" t="s">
-        <v>228</v>
+      <c r="AH82">
+        <v>0</v>
+      </c>
+      <c r="AI82">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
